--- a/data/trans_media/dukeGLOBAL-Estudios-trans_media.xlsx
+++ b/data/trans_media/dukeGLOBAL-Estudios-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,03; 79,55</t>
+          <t>76,98; 79,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,86; 83,4</t>
+          <t>80,81; 83,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,82; 80,32</t>
+          <t>77,76; 80,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,61; 79,42</t>
+          <t>75,53; 79,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,62; 76,99</t>
+          <t>74,66; 77,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,89; 81,94</t>
+          <t>79,86; 81,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,26; 77,82</t>
+          <t>75,37; 77,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,97; 77,59</t>
+          <t>74,82; 77,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,07; 77,87</t>
+          <t>76,03; 77,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>80,65; 82,19</t>
+          <t>80,69; 82,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 78,53</t>
+          <t>76,65; 78,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,68; 77,78</t>
+          <t>75,57; 77,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,6; 86,12</t>
+          <t>84,53; 86,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,13; 86,7</t>
+          <t>85,18; 86,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,78; 82,09</t>
+          <t>80,73; 82,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,27; 86,46</t>
+          <t>84,34; 86,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,29; 84,12</t>
+          <t>82,38; 84,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,77; 84,35</t>
+          <t>82,67; 84,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,73; 82,02</t>
+          <t>80,71; 82,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,55; 85,04</t>
+          <t>83,49; 85,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,79; 84,93</t>
+          <t>83,76; 84,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,26; 85,34</t>
+          <t>84,25; 85,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,93; 81,86</t>
+          <t>80,95; 81,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>84,16; 85,41</t>
+          <t>84,16; 85,49</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,15; 87,01</t>
+          <t>84,03; 87,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,74; 88,88</t>
+          <t>85,69; 88,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,19; 86,74</t>
+          <t>84,18; 86,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,26; 88,92</t>
+          <t>86,19; 88,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,99; 87,07</t>
+          <t>83,93; 87,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,98; 89,58</t>
+          <t>87,14; 89,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,08; 86,54</t>
+          <t>84,1; 86,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,86; 89,8</t>
+          <t>87,9; 89,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,5; 86,66</t>
+          <t>84,53; 86,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,91; 88,84</t>
+          <t>86,82; 88,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>84,6; 86,32</t>
+          <t>84,53; 86,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,53; 89,21</t>
+          <t>87,52; 89,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,53; 83,83</t>
+          <t>82,57; 83,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,47; 85,56</t>
+          <t>84,48; 85,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,04; 82,11</t>
+          <t>81,0; 82,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,71; 85,34</t>
+          <t>83,76; 85,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,08; 81,45</t>
+          <t>79,98; 81,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,62; 83,73</t>
+          <t>82,52; 83,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,08; 81,19</t>
+          <t>80,06; 81,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,82; 84,03</t>
+          <t>82,87; 84,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,45; 82,39</t>
+          <t>81,51; 82,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,69; 84,48</t>
+          <t>83,66; 84,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,7; 81,49</t>
+          <t>80,68; 81,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,42; 84,39</t>
+          <t>83,45; 84,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeGLOBAL-Estudios-trans_media.xlsx
+++ b/data/trans_media/dukeGLOBAL-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,98; 79,57</t>
+          <t>77,04; 79,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,81; 83,27</t>
+          <t>80,86; 83,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,76; 80,41</t>
+          <t>77,83; 80,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,66; 77,05</t>
+          <t>74,76; 77,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,86; 81,88</t>
+          <t>79,87; 81,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,37; 77,91</t>
+          <t>75,4; 77,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,03; 77,91</t>
+          <t>75,98; 77,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>80,69; 82,2</t>
+          <t>80,66; 82,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76,65; 78,42</t>
+          <t>76,65; 78,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,53; 86,1</t>
+          <t>84,66; 86,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,18; 86,67</t>
+          <t>85,2; 86,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,73; 82,09</t>
+          <t>80,72; 82,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,38; 84,08</t>
+          <t>82,36; 84,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,67; 84,35</t>
+          <t>82,76; 84,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,71; 82,08</t>
+          <t>80,68; 82,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,76; 84,95</t>
+          <t>83,78; 84,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,25; 85,34</t>
+          <t>84,25; 85,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,95; 81,9</t>
+          <t>80,93; 81,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,03; 87,08</t>
+          <t>84,08; 86,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,69; 88,74</t>
+          <t>85,62; 88,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,18; 86,61</t>
+          <t>84,23; 86,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,93; 87,01</t>
+          <t>83,78; 87,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,14; 89,65</t>
+          <t>87,16; 89,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,1; 86,55</t>
+          <t>84,0; 86,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,53; 86,61</t>
+          <t>84,39; 86,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,82; 88,78</t>
+          <t>86,8; 88,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>84,53; 86,22</t>
+          <t>84,57; 86,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,57; 83,83</t>
+          <t>82,53; 83,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,48; 85,61</t>
+          <t>84,44; 85,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,0; 82,1</t>
+          <t>80,93; 82,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,98; 81,34</t>
+          <t>80,01; 81,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,52; 83,73</t>
+          <t>82,61; 83,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,06; 81,21</t>
+          <t>80,1; 81,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,51; 82,41</t>
+          <t>81,46; 82,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,66; 84,47</t>
+          <t>83,69; 84,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,68; 81,45</t>
+          <t>80,69; 81,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
